--- a/artfynd/A 12138-2021.xlsx
+++ b/artfynd/A 12138-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY58"/>
+  <dimension ref="A1:AY59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7536,6 +7536,130 @@
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112444977</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Nedanför röda berget, Vg</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>339086</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6431252</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Skepplanda</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Ingela Eriksson</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Ingela Eriksson</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
